--- a/configurator_template_fixed.xlsx
+++ b/configurator_template_fixed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,12 +493,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B8 - 2008 - 2011</t>
+          <t>8X - 2010 - 2014</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,24 +508,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.8 TFSI 120 HP</t>
+          <t>1.2 TFSI 86 HP</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="H2" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="I2" t="n">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>VMax;Decat;EVAP;Flaps;PopBang;StartStop;DTC Removal</t>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
         </is>
       </c>
     </row>
@@ -537,12 +537,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B8 - 2008 - 2011</t>
+          <t>8X - 2010 - 2014</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -552,24 +552,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.0 TFSI 211 HP</t>
+          <t>1.2 TFSI 105 HP</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="G3" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="H3" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="I3" t="n">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>VMax;Decat;EVAP;Flaps;PopBang;StartStop;DTC Removal</t>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
         </is>
       </c>
     </row>
@@ -581,39 +581,1051 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8X - 2010 - 2014</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.4 TFSI 122 HP</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>122</v>
+      </c>
+      <c r="G4" t="n">
+        <v>155</v>
+      </c>
+      <c r="H4" t="n">
+        <v>200</v>
+      </c>
+      <c r="I4" t="n">
+        <v>270</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8X - 2010 - 2014</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.4 TFSI 140 HP</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>140</v>
+      </c>
+      <c r="G5" t="n">
+        <v>190</v>
+      </c>
+      <c r="H5" t="n">
+        <v>250</v>
+      </c>
+      <c r="I5" t="n">
+        <v>320</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8X - 2010 - 2014</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.4 TFSI 185 HP</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>185</v>
+      </c>
+      <c r="G6" t="n">
+        <v>210</v>
+      </c>
+      <c r="H6" t="n">
+        <v>250</v>
+      </c>
+      <c r="I6" t="n">
+        <v>300</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8X - 2010 - 2014</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.0 TFSI 256 HP</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>256</v>
+      </c>
+      <c r="G7" t="n">
+        <v>300</v>
+      </c>
+      <c r="H7" t="n">
+        <v>350</v>
+      </c>
+      <c r="I7" t="n">
+        <v>420</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8X - 2010 - 2014</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>S1 2.0 TFSI 231 HP</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>231</v>
+      </c>
+      <c r="G8" t="n">
+        <v>300</v>
+      </c>
+      <c r="H8" t="n">
+        <v>370</v>
+      </c>
+      <c r="I8" t="n">
+        <v>440</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8X - 2010 - 2014</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.6 TDI CR 90 HP</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>90</v>
+      </c>
+      <c r="G9" t="n">
+        <v>140</v>
+      </c>
+      <c r="H9" t="n">
+        <v>230</v>
+      </c>
+      <c r="I9" t="n">
+        <v>320</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8X - 2010 - 2014</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.6 TDI CR 105 HP</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>105</v>
+      </c>
+      <c r="G10" t="n">
+        <v>140</v>
+      </c>
+      <c r="H10" t="n">
+        <v>250</v>
+      </c>
+      <c r="I10" t="n">
+        <v>320</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8X - 2010 - 2014</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.0 TDI CR 136 HP</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>136</v>
+      </c>
+      <c r="G11" t="n">
+        <v>185</v>
+      </c>
+      <c r="H11" t="n">
+        <v>320</v>
+      </c>
+      <c r="I11" t="n">
+        <v>400</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8X - 2010 - 2014</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.0 TDI CR 143 HP</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>143</v>
+      </c>
+      <c r="G12" t="n">
+        <v>185</v>
+      </c>
+      <c r="H12" t="n">
+        <v>320</v>
+      </c>
+      <c r="I12" t="n">
+        <v>400</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>A4</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>B8 - 2008 - 2011</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.8 TFSI 120 HP</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>120</v>
+      </c>
+      <c r="G13" t="n">
+        <v>210</v>
+      </c>
+      <c r="H13" t="n">
+        <v>230</v>
+      </c>
+      <c r="I13" t="n">
+        <v>310</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.8 TFSI 160 HP</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>160</v>
+      </c>
+      <c r="G14" t="n">
+        <v>210</v>
+      </c>
+      <c r="H14" t="n">
+        <v>250</v>
+      </c>
+      <c r="I14" t="n">
+        <v>340</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.0 TFSI 180 HP</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>180</v>
+      </c>
+      <c r="G15" t="n">
+        <v>245</v>
+      </c>
+      <c r="H15" t="n">
+        <v>320</v>
+      </c>
+      <c r="I15" t="n">
+        <v>400</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.0 TFSI 211 HP</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>211</v>
+      </c>
+      <c r="G16" t="n">
+        <v>260</v>
+      </c>
+      <c r="H16" t="n">
+        <v>350</v>
+      </c>
+      <c r="I16" t="n">
+        <v>400</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.0 TFSI 272 HP</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>272</v>
+      </c>
+      <c r="G17" t="n">
+        <v>400</v>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>500</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.0 TFSI 290 HP</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>290</v>
+      </c>
+      <c r="G18" t="n">
+        <v>400</v>
+      </c>
+      <c r="H18" t="n">
+        <v>420</v>
+      </c>
+      <c r="I18" t="n">
+        <v>500</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.2 FSI 265 HP</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>265</v>
+      </c>
+      <c r="G19" t="n">
+        <v>285</v>
+      </c>
+      <c r="H19" t="n">
+        <v>330</v>
+      </c>
+      <c r="I19" t="n">
+        <v>350</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;LSU - lambda probe;EVAP - The ventilation system of the fuel tank;VSA - swirl flaps of collectors;SAP - second air;EGR - exhaust gas recirculation system;OPF - otto particulate filter;NOx - the oxygen sensor;PopBang;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Diesel</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.0 TDI CR 120 HP</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>136</v>
+      </c>
+      <c r="G20" t="n">
+        <v>185</v>
+      </c>
+      <c r="H20" t="n">
+        <v>320</v>
+      </c>
+      <c r="I20" t="n">
+        <v>410</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.0 TDI CR 143 HP</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>143</v>
+      </c>
+      <c r="G21" t="n">
+        <v>185</v>
+      </c>
+      <c r="H21" t="n">
+        <v>320</v>
+      </c>
+      <c r="I21" t="n">
+        <v>410</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2.0 TDI CR 163 HP</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>163</v>
+      </c>
+      <c r="G22" t="n">
+        <v>205</v>
+      </c>
+      <c r="H22" t="n">
+        <v>350</v>
+      </c>
+      <c r="I22" t="n">
+        <v>430</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2.0 TDI CR 170 HP</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F23" t="n">
         <v>170</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G23" t="n">
         <v>205</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H23" t="n">
         <v>350</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I23" t="n">
         <v>430</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>VMax;AdBlue;EGR off;DPF off;Flaps;StartStop;DTC Removal</t>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2.7 V6 TDI 163 HP</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>163</v>
+      </c>
+      <c r="G24" t="n">
+        <v>230</v>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>480</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2.7 V6 TDI 190 HP</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>190</v>
+      </c>
+      <c r="G25" t="n">
+        <v>230</v>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>480</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3.0 V6 TDI 211 HP</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>211</v>
+      </c>
+      <c r="G26" t="n">
+        <v>290</v>
+      </c>
+      <c r="H26" t="n">
+        <v>500</v>
+      </c>
+      <c r="I26" t="n">
+        <v>625</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B8 - 2008 - 2011</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3.0 V6 TDI 240 HP</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>240</v>
+      </c>
+      <c r="G27" t="n">
+        <v>290</v>
+      </c>
+      <c r="H27" t="n">
+        <v>500</v>
+      </c>
+      <c r="I27" t="n">
+        <v>625</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VMax - speed limiter;SCR - AdBlue system;EGR - exhaust gas recirculation system;DPF - diesel particulate filter;TVA - throttle flaps;VSA - swirl flaps of collectors;MAF - air flow meter;NOx - the oxygen sensor;IMMO - immobilizer;DTC Removal - diagnostic trouble codes;StartStop Removal</t>
         </is>
       </c>
     </row>
